--- a/data/input/FISH/Tax_reviewed_FISH.xlsx
+++ b/data/input/FISH/Tax_reviewed_FISH.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonhoangtran/Documents/HOANG-WORK/DATABASE/Database_new_pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudia.restrepo-ortiz/Documents/MARBEC/JC/Pathogens/PathoLens/data/input/FISH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6518C30-251E-7741-89D2-5A6B0BCCB256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41A3AD8-5B6C-F041-ABE8-A750BFACAFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10880" yWindow="-25380" windowWidth="33900" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$505</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$419</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="428">
   <si>
     <t>Complete Taxonomy</t>
   </si>
@@ -67,24 +67,12 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Pasteurellaceae;Phocoenobacter;Pasteurella skyensis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum JDM1</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Kosakonia;Enterobacter cloacae subsp. dissolvens</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Buttiauxella;Kluyvera cryocrescens</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Litchfieldia;Bacillus subtilis S1-4</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum WHE 92</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Bacillus cereus</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Pseudomonadaceae;Pseudomonas;Klebsiella pneumoniae</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Acinetobacter baumannii 45052_2</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;Vibrio parahaemolyticus</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Hafnia alvei</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Staphylococcales;Staphylococcaceae;Staphylococcus;Salmonella enterica subsp. enterica serovar Typhi</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Streptococcaceae;Lactococcus;Leuconostoc mesenteroides</t>
   </si>
   <si>
@@ -196,9 +178,6 @@
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Streptococcaceae;Streptococcus;Bacillus licheniformis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Peribacillus;Salmonella enterica subsp. enterica serovar Typhi</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Peribacillus;Bacillus thuringiensis</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Niallia;Bacillus subtilis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus megaterium NBRC 15308 = ATCC 14581</t>
-  </si>
-  <si>
     <t>Bacteria;Marinimicrobia (SAR406 clade);Incertae Sedis;Incertae Sedis;Incertae Sedis;Incertae Sedis;Alteromonas macleodii</t>
   </si>
   <si>
@@ -238,15 +214,9 @@
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactobacillus;Lactococcus garvieae</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus megaterium Q3</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacter;Pseudomonas aeruginosa</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum subsp. plantarum ATCC 14917 = JCM 1149 = CGMCC</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Litchfieldia;Bacillus cereus</t>
   </si>
   <si>
@@ -259,9 +229,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Kosakonia;Enterobacter hormaechei</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Salmonella enterica subsp. arizonae</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Metabacillus;Bacillus subtilis</t>
   </si>
   <si>
@@ -280,15 +247,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Burkholderiales;Alcaligenaceae;Incertae Sedis;Achromobacter xylosoxidans</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus megaterium NCT-2</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum CMPG5300</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Brevibacillales;Brevibacillaceae;Brevibacillus;Citrobacter freundii ATCC 8090 = MTCC 1658</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Burkholderiales;Burkholderiaceae;Cupriavidus;Stenotrophomonas maltophilia</t>
   </si>
   <si>
@@ -325,15 +283,9 @@
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Pediococcus;Leuconostoc mesenteroides</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum DOMLa</t>
-  </si>
-  <si>
     <t>Bacteria;Actinomycetota;Actinobacteria;Kitasatosporales;Streptomycetaceae;Streptomyces;Bacillus thuringiensis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum 2025</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Yersiniaceae;Serratia;Enterobacter cloacae</t>
   </si>
   <si>
@@ -349,9 +301,6 @@
     <t>Bacteria;Bacillota;Clostridia;Clostridiales;Clostridiaceae;Clostridium;Enterococcus faecalis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;[Bacillus thuringiensis] serovar konkukian str. 97-27</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Pediococcus;Bacillus licheniformis</t>
   </si>
   <si>
@@ -367,9 +316,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Hafniaceae;Edwardsiella;Flavobacterium columnare</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum EGD-AQ4</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Yersiniaceae;Serratia;Klebsiella pneumoniae</t>
   </si>
   <si>
@@ -379,9 +325,6 @@
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;Flavobacterium columnare</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Pectobacteriaceae;Dickeya;Salmonella enterica subsp. enterica serovar Enteritidis</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Leuconostoc mesenteroides</t>
   </si>
   <si>
@@ -421,9 +364,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Yersiniaceae;Yersinia;Streptococcus iniae</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum subsp. plantarum P-8</t>
-  </si>
-  <si>
     <t>Bacteria;Actinomycetota;Actinobacteria;Micrococcales;Microbacteriaceae;Microbacterium;Klebsiella pneumoniae</t>
   </si>
   <si>
@@ -448,9 +388,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Morganellaceae;Proteus;Citrobacter freundii</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;Klebsiella pneumoniae LCT-KP182</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Budviciaceae;Pragia;Raoultella ornithinolytica</t>
   </si>
   <si>
@@ -484,9 +421,6 @@
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Leuconostoc mesenteroides</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Erwiniaceae;Pantoea;Enterobacter cloacae subsp. rugosum</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;Serratia marcescens</t>
   </si>
   <si>
@@ -502,9 +436,6 @@
     <t>Bacteria;Actinomycetota;Actinobacteria;Micrococcales;Microbacteriaceae;Microbacterium;Bacillus subtilis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum 16</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacillus;Enterobacter cloacae</t>
   </si>
   <si>
@@ -538,12 +469,6 @@
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;Acinetobacter lwoffii</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacter;Klebsiella pneumoniae subsp. ozaenae</t>
-  </si>
-  <si>
-    <t>Bacteria;Pseudomonadota;Alphaproteobacteria;Hyphomicrobiales;Rhizobiaceae;Shinella;Pseudomonas stutzeri XLDN-R</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactococcus lactis</t>
   </si>
   <si>
@@ -556,9 +481,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;Enterobacter cloacae</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Latilactobacillus;Lactococcus lactis subsp. cremoris</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Klebsiella pneumoniae</t>
   </si>
   <si>
@@ -568,15 +490,9 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Acinetobacter baumannii</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum ZJ316</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Paenibacillales;Paenibacillaceae;Paenibacillus;Bacillus flexus</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Streptococcaceae;Streptococcus;Salmonella enterica subsp. enterica serovar Saintpaul</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Staphylococcales;Staphylococcaceae;Jeotgalicoccus;Micrococcus luteus</t>
   </si>
   <si>
@@ -604,9 +520,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Yersiniaceae;Serratia;Raoultella ornithinolytica</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum 2165</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Morganellaceae;Providencia;Vibrio cholerae</t>
   </si>
   <si>
@@ -625,18 +538,9 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;Raoultella ornithinolytica</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Metabacillus;Bacillus subtilis Miyagi-4</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Acinetobacter baumannii 25977_9</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Mesobacillus;Bacillus thuringiensis</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacter;Salmonella enterica subsp. enterica serovar Typhimurium</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Erwiniaceae;Pantoea;Enterobacter cloacae</t>
   </si>
   <si>
@@ -670,27 +574,15 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Burkholderiales;Chromobacteriaceae;Vogesella;Vibrio cholerae</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum subsp. plantarum NC8</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Staphylococcales;Staphylococcaceae;Mammaliicoccus;Salmonella enterica subsp. enterica serovar Typhi</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Morganellaceae;Incertae Sedis;Proteus vulgaris</t>
   </si>
   <si>
     <t>Bacteria;Bacillota;Bacilli;Staphylococcales;Staphylococcaceae;Staphylococcus;Lactobacillus plantarum</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Vibrio cholerae HC-02A1</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Burkholderiales;Alcaligenaceae;Alcaligenes;Pseudomonas putida</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;Enterobacter hormaechei subsp. xiangfangensis</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Staphylococcales;Staphylococcaceae;Staphylococcus;Serratia marcescens</t>
   </si>
   <si>
@@ -715,33 +607,18 @@
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus megaterium</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum IPLA88</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Peribacillus;Geobacillus stearothermophilus</t>
   </si>
   <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus cereus</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Niallia;Bacillus circulans subsp. circulans</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Lysobacterales;Lysobacteraceae;Stenotrophomonas;Pseudomonas aeruginosa</t>
   </si>
   <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Pseudomonas stutzeri</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum 19L3</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Klebsiella pneumoniae LCT-KP289</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus megaterium WSH-002</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Staphylococcales;Staphylococcaceae;Staphylococcus;Acinetobacter baumannii</t>
   </si>
   <si>
@@ -760,9 +637,6 @@
     <t>Bacteria;Cyanobacteriota;Cyanobacteriia;Gloeobacterales;Gloeobacteraceae;Gloeobacter PCC-7421;Salmonella enterica</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Acinetobacter baumannii 45057_1</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Neobacillus;Bacillus subtilis</t>
   </si>
   <si>
@@ -787,9 +661,6 @@
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;Pediococcus pentosaceus</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Salmonella enterica subsp. enterica serovar Bovismorbificans</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Burkholderiales;Comamonadaceae;Xylophilus;Rhodococcus qingshengii</t>
   </si>
   <si>
@@ -820,18 +691,12 @@
     <t>Bacteria;Actinomycetota;Actinobacteria;Micrococcales;Microbacteriaceae;Microbacterium;Bacillus cereus</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum UCMA 3037</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Salmonella enterica</t>
   </si>
   <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Lysobacterales;Lysobacteraceae;Stenotrophomonas;Staphylococcus cohnii</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Planococcaceae;Lysinibacillus;Bacillus subtilis subsp. spizizenii</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Pediococcus;Lactobacillus plantarum</t>
   </si>
   <si>
@@ -844,9 +709,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Alcanivoracaceae1;Alcanivorax;Bacillus subtilis</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;Enterobacter hormaechei subsp. xiangfangensis</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Incertae Sedis;Incertae Sedis;Enterococcus faecium</t>
   </si>
   <si>
@@ -874,12 +736,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Morganellaceae;Proteus;Bacillus licheniformis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Rossellomorea;Bacillus aquimaris TF12</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum WCFS1</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacter;Micrococcus luteus</t>
   </si>
   <si>
@@ -895,9 +751,6 @@
     <t>Bacteria;Pseudomonadota;Alphaproteobacteria;Hyphomicrobiales;Rhizobiaceae;Brucella;Exiguobacterium indicum</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Salmonella enterica subsp. enterica serovar Weltevreden</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;Klebsiella pneumoniae</t>
   </si>
   <si>
@@ -922,9 +775,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Halomonadaceae;Salinicola;Bacillus subtilis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus flexus NBRC 15715</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Halomonadaceae;Halomonas;Pseudomonas fluorescens</t>
   </si>
   <si>
@@ -940,15 +790,9 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Moraxellaceae;Acinetobacter;Pseudomonas aeruginosa</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Moraxellaceae;Acinetobacter;Salmonella enterica subsp. enterica serovar Typhi</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Pseudomonadaceae;Pseudomonas;Edwardsiella tarda</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Aerococcaceae;Aerococcus;Pseudomonas putida MR3</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Fictibacillus;Geobacillus stearothermophilus</t>
   </si>
   <si>
@@ -976,9 +820,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Pseudoalteromonadaceae;Pseudoalteromonas;Pseudomonas putida</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Pseudomonadaceae;Pseudomonas;Salmonella enterica subsp. enterica serovar Weltevreden</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Ligilactobacillus;Lactococcus lactis</t>
   </si>
   <si>
@@ -1015,9 +856,6 @@
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Lactococcus garvieae</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Salmonella enterica subsp. enterica serovar Pullorum</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Alphaproteobacteria;Hyphomicrobiales;Rhizobiaceae;Agrobacterium;Bacillus flexus</t>
   </si>
   <si>
@@ -1048,15 +886,9 @@
     <t>Bacteria;Pseudomonadota;Alphaproteobacteria;Hyphomicrobiales;Rhizobiaceae;Brucella;Serratia marcescens</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Morganellaceae;Providencia;Salmonella enterica subsp. enterica serovar Typhi</t>
-  </si>
-  <si>
     <t>Bacteria;Actinomycetota;Actinobacteria;Micrococcales;Micrococcaceae;Citricoccus;Bacillus subtilis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus subtilis subsp. inaquosorum</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacter;Citrobacter gillenii</t>
   </si>
   <si>
@@ -1066,18 +898,9 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacter;Bacillus cereus</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Klebsiella pneumoniae IS22</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Rossellomorea;Bacillus subtilis</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum subsp. argentoratensis DSM 16365</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Carnobacteriaceae;Carnobacterium;Aeromonas salmonicida subsp. masoucida</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Marinobacteraceae;Marinobacter;Bacillus subtilis</t>
   </si>
   <si>
@@ -1087,15 +910,9 @@
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Streptococcaceae;Lactococcus;Bacillus megaterium</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus megaterium QM B1551</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Raoultella ornithinolytica</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;Raoultella ornithinolytica 2-156-04_S1_C1</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Levilactobacillus;Pediococcus pentosaceus</t>
   </si>
   <si>
@@ -1114,9 +931,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Vibrionaceae;Vibrio;Listonella anguillarum</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Yersiniaceae;Serratia;Rhodotorula mucilaginosa/Serratia marcescens fusant</t>
-  </si>
-  <si>
     <t>Bacteria;Actinomycetota;Actinobacteria;Micrococcales;Micrococcaceae;Paeniglutamicibacter;Pseudarthrobacter oxydans</t>
   </si>
   <si>
@@ -1126,12 +940,6 @@
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Mesobacillus;Pseudomonas monteilii</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Salmonella enterica subsp. enterica serovar Kentucky str. 29439</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;Salmonella enterica subsp. enterica serovar Typhi</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Staphylococcales;Staphylococcaceae;Staphylococcus;Bacillus cereus</t>
   </si>
   <si>
@@ -1168,18 +976,12 @@
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus thuringiensis</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Acinetobacter baumannii 42057_3</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Kluyvera;Citrobacter braakii</t>
   </si>
   <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Carnobacteriaceae;Granulicatella;Enterobacter cloacae</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Acinetobacter baumannii 278</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Bacillus cereus</t>
   </si>
   <si>
@@ -1198,9 +1000,6 @@
     <t>Bacteria;Bacillota;Bacilli;Brevibacillales;Brevibacillaceae;Brevibacillus;Bacillus pumilus</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum WJL</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;Vibrio alginolyticus</t>
   </si>
   <si>
@@ -1231,12 +1030,6 @@
     <t>Bacteria;Bacillota;Bacilli;Brevibacillales;Brevibacillaceae;Brevibacillus;Bacillus thuringiensis</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Enterobacter hormaechei subsp. xiangfangensis</t>
-  </si>
-  <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacter;Vibrio cholerae O1 str. Amazonia</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Pseudomonadaceae;Pseudomonas;Bacillus subtilis</t>
   </si>
   <si>
@@ -1252,9 +1045,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Moraxellaceae;Acinetobacter;Bacillus subtilis</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Acinetobacter baumannii 42057_5</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Burkholderiales;Alcaligenaceae;Bordetella;Achromobacter xylosoxidans</t>
   </si>
   <si>
@@ -1303,12 +1093,6 @@
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Niallia;Stenotrophomonas maltophilia</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Litchfieldia;Bacillus subtilis PS216</t>
-  </si>
-  <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Salmonella enterica subsp. enterica serovar Infantis str. CVM N26093</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Streptococcaceae;Lactococcus;Lactobacillus plantarum</t>
   </si>
   <si>
@@ -1318,12 +1102,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Raoultella;Klebsiella pneumoniae</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum subsp. plantarum ST-III</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum LP91</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Companilactobacillus;Bacillus thuringiensis</t>
   </si>
   <si>
@@ -1375,12 +1153,6 @@
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Leuconostoc;Enterococcus faecium</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Metabacillus;Bacillus subtilis PTS-394</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Enterococcaceae;Enterococcus;Acinetobacter baumannii 45057_1</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Cronobacter;Lysinibacillus fusiformis</t>
   </si>
   <si>
@@ -1414,27 +1186,15 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;Enterococcus casseliflavus</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacter;Lelliottia amnigena CHS 78</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Salisediminibacteriaceae;Salipaludibacillus;Bacillus cereus</t>
   </si>
   <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Metabacillus;Bacillus licheniformis</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;Raoultella ornithinolytica 2-156-04_S1_C2</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Niallia;Bacillus circulans NBRC 13626</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Pediococcus;Enterococcus hirae</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;Klebsiella pneumoniae MGH 48</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Rossellomorea;Bacillus cereus</t>
   </si>
   <si>
@@ -1456,9 +1216,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Pseudocitrobacter;Enterobacter cloacae</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Lactobacillales;Lactobacillaceae;Lactiplantibacillus;Lactobacillus plantarum subsp. argentoratensis</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;Citrobacter freundii</t>
   </si>
   <si>
@@ -1474,9 +1231,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Aeromonadaceae;Aeromonas;Carnobacterium maltaromaticum</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Kosakonia;Enterobacter cloacae S611</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Paenibacillales;Paenibacillaceae;Paenibacillus;Pseudomonas fluorescens</t>
   </si>
   <si>
@@ -1504,15 +1258,6 @@
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Pseudomonadaceae;Pseudomonas;Aeromonas sobria</t>
   </si>
   <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Peribacillus;Bacillus subtilis subsp. spizizenii</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Bacillus;[Bacillus thuringiensis] serovar konkukian</t>
-  </si>
-  <si>
-    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus megaterium DSM 319</t>
-  </si>
-  <si>
     <t>Bacteria;Bacillota;Bacilli;Brevibacillales;Brevibacillaceae;Brevibacillus;Bacillus licheniformis</t>
   </si>
   <si>
@@ -1540,9 +1285,6 @@
     <t>Bacteria;Bacteroidota;Bacteroidia;Cytophagales;Spirosomataceae;Dyadobacter;Brevibacillus agri</t>
   </si>
   <si>
-    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;Raoultella ornithinolytica 10-5246</t>
-  </si>
-  <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Burkholderiales;Oxalobacteraceae;Herbaspirillum;Bacillus subtilis</t>
   </si>
   <si>
@@ -1559,6 +1301,24 @@
   </si>
   <si>
     <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Lysobacterales;Lysobacteraceae;Pseudoxanthomonas;Stenotrophomonas maltophilia</t>
+  </si>
+  <si>
+    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Priestia;Bacillus sp. IHB B 7164</t>
+  </si>
+  <si>
+    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Enterobacter;Achromobacter sp. ATCC13047</t>
+  </si>
+  <si>
+    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Escherichia-Shigella;bacterium BM0323</t>
+  </si>
+  <si>
+    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Pseudomonadales;Moraxellaceae;Acinetobacter;bacterium BM0613</t>
+  </si>
+  <si>
+    <t>Bacteria;Bacillota;Bacilli;Bacillales;Bacillaceae;Metabacillus;Bacillus cellulasensis</t>
+  </si>
+  <si>
+    <t>Bacteria;Pseudomonadota;Gammaproteobacteria;Enterobacterales;Enterobacteriaceae;Klebsiella;bacterium BM0359</t>
   </si>
 </sst>
 </file>
@@ -1922,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C505"/>
+  <dimension ref="A1:B425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1944,31 +1704,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1976,7 +1736,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1984,7 +1744,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1992,7 +1752,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2000,7 +1760,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2008,7 +1768,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2016,7 +1776,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2024,7 +1784,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -2032,7 +1792,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2040,7 +1800,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2048,7 +1808,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2056,7 +1816,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -2064,7 +1824,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -2072,7 +1832,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -2080,7 +1840,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -2088,15 +1848,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -2104,7 +1864,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>447</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -2112,7 +1872,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>332</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2120,7 +1880,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -2128,7 +1888,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -2136,7 +1896,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -2144,7 +1904,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -2152,7 +1912,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>496</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2160,7 +1920,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>402</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2168,7 +1928,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>436</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -2176,7 +1936,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2184,7 +1944,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -2192,7 +1952,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>488</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -2200,7 +1960,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>385</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -2208,7 +1968,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2216,7 +1976,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>415</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2224,7 +1984,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -2232,7 +1992,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -2240,23 +2000,23 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2264,7 +2024,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -2272,7 +2032,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2280,7 +2040,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2288,7 +2048,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2296,7 +2056,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2304,7 +2064,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2312,7 +2072,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2320,7 +2080,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2328,7 +2088,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2336,7 +2096,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>342</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -2344,7 +2104,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2352,7 +2112,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>381</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -2360,7 +2120,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>401</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -2368,7 +2128,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>430</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2376,7 +2136,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2384,7 +2144,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2392,15 +2152,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -2408,7 +2168,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>394</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2416,23 +2176,23 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>463</v>
+        <v>252</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -2440,7 +2200,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -2448,7 +2208,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2456,7 +2216,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2464,23 +2224,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>382</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>383</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -2488,7 +2248,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2496,7 +2256,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -2504,7 +2264,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -2512,7 +2272,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -2520,7 +2280,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>384</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -2528,7 +2288,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -2536,7 +2296,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2544,7 +2304,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -2552,7 +2312,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2560,7 +2320,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2568,7 +2328,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -2576,15 +2336,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>461</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -2592,7 +2352,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>492</v>
+        <v>351</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -2600,7 +2360,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -2608,7 +2368,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -2616,15 +2376,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>361</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -2632,7 +2392,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>272</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -2640,7 +2400,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -2648,7 +2408,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -2656,7 +2416,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>411</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -2664,63 +2424,63 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>435</v>
+        <v>316</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>491</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>422</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -2728,15 +2488,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>386</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -2744,7 +2504,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -2752,7 +2512,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -2760,7 +2520,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -2768,7 +2528,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>405</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -2776,7 +2536,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>292</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -2784,7 +2544,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>386</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -2792,7 +2552,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>391</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -2800,7 +2560,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>443</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -2808,7 +2568,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -2816,7 +2576,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -2824,7 +2584,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>356</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -2832,7 +2592,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -2840,7 +2600,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -2848,7 +2608,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>102</v>
+        <v>367</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -2856,7 +2616,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -2864,7 +2624,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -2872,7 +2632,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -2880,7 +2640,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -2888,7 +2648,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -2896,7 +2656,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -2904,7 +2664,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -2912,7 +2672,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -2920,7 +2680,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -2928,7 +2688,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -2936,7 +2696,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -2944,7 +2704,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -2952,7 +2712,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -2960,7 +2720,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -2968,7 +2728,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -2976,7 +2736,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -2984,7 +2744,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>338</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -2992,7 +2752,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -3000,7 +2760,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -3008,7 +2768,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -3016,7 +2776,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>356</v>
+        <v>148</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -3024,7 +2784,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>393</v>
+        <v>41</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -3032,7 +2792,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -3040,7 +2800,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>404</v>
+        <v>123</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -3048,7 +2808,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>432</v>
+        <v>96</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -3056,7 +2816,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -3064,7 +2824,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>499</v>
+        <v>175</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -3072,7 +2832,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>502</v>
+        <v>224</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -3080,7 +2840,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>505</v>
+        <v>355</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -3088,7 +2848,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -3096,7 +2856,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>422</v>
+        <v>263</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -3104,7 +2864,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>446</v>
+        <v>305</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -3112,7 +2872,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -3120,15 +2880,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -3136,7 +2896,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>489</v>
+        <v>127</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -3144,7 +2904,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>456</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -3152,7 +2912,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -3160,7 +2920,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -3168,7 +2928,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -3176,7 +2936,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -3184,7 +2944,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -3192,7 +2952,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -3200,7 +2960,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -3208,7 +2968,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
@@ -3216,7 +2976,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -3224,7 +2984,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>429</v>
+        <v>242</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -3232,7 +2992,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>485</v>
+        <v>89</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -3240,7 +3000,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -3248,7 +3008,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>500</v>
+        <v>258</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
@@ -3256,7 +3016,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
@@ -3264,7 +3024,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>478</v>
+        <v>292</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -3272,7 +3032,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
@@ -3280,7 +3040,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>378</v>
+        <v>261</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
@@ -3288,7 +3048,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -3296,7 +3056,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>65</v>
+        <v>344</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
@@ -3304,7 +3064,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -3312,7 +3072,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>136</v>
+        <v>340</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
@@ -3320,7 +3080,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
@@ -3328,7 +3088,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
@@ -3336,7 +3096,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>396</v>
+        <v>124</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -3344,7 +3104,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>474</v>
+        <v>88</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -3352,7 +3112,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -3360,7 +3120,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
@@ -3368,7 +3128,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -3376,7 +3136,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
@@ -3384,7 +3144,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
@@ -3392,7 +3152,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -3400,7 +3160,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -3408,7 +3168,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
@@ -3416,7 +3176,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -3424,7 +3184,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -3432,7 +3192,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>172</v>
+        <v>352</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -3440,7 +3200,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
@@ -3448,7 +3208,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
@@ -3456,7 +3216,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>321</v>
+        <v>24</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
@@ -3464,7 +3224,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>46</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -3472,7 +3232,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
@@ -3480,7 +3240,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>457</v>
+        <v>212</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
@@ -3488,7 +3248,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>470</v>
+        <v>229</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
@@ -3496,7 +3256,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
@@ -3504,7 +3264,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>487</v>
+        <v>13</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
@@ -3512,7 +3272,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>479</v>
+        <v>75</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
@@ -3520,7 +3280,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
@@ -3528,7 +3288,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
@@ -3536,7 +3296,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
@@ -3544,7 +3304,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
@@ -3552,7 +3312,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
@@ -3560,7 +3320,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
@@ -3568,7 +3328,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>217</v>
+        <v>398</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -3576,7 +3336,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
@@ -3584,7 +3344,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>398</v>
+        <v>152</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
@@ -3592,7 +3352,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -3600,7 +3360,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -3608,7 +3368,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
@@ -3616,7 +3376,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>504</v>
+        <v>194</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
@@ -3624,7 +3384,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
@@ -3632,7 +3392,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
@@ -3640,7 +3400,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>389</v>
+        <v>138</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
@@ -3648,7 +3408,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
@@ -3656,7 +3416,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>440</v>
+        <v>322</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
@@ -3664,7 +3424,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
@@ -3672,7 +3432,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="B218" t="s">
         <v>3</v>
@@ -3680,7 +3440,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="B219" t="s">
         <v>3</v>
@@ -3688,7 +3448,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -3696,7 +3456,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
@@ -3704,7 +3464,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
@@ -3712,7 +3472,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
@@ -3720,7 +3480,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
@@ -3728,7 +3488,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
@@ -3736,7 +3496,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
@@ -3744,7 +3504,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
@@ -3752,7 +3512,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>445</v>
+        <v>37</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
@@ -3760,7 +3520,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>452</v>
+        <v>105</v>
       </c>
       <c r="B229" t="s">
         <v>3</v>
@@ -3768,7 +3528,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>464</v>
+        <v>177</v>
       </c>
       <c r="B230" t="s">
         <v>3</v>
@@ -3776,7 +3536,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="B231" t="s">
         <v>3</v>
@@ -3784,7 +3544,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="B232" t="s">
         <v>3</v>
@@ -3792,7 +3552,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>285</v>
+        <v>51</v>
       </c>
       <c r="B233" t="s">
         <v>3</v>
@@ -3800,7 +3560,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="B234" t="s">
         <v>3</v>
@@ -3808,7 +3568,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
@@ -3816,7 +3576,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
@@ -3824,7 +3584,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
@@ -3832,7 +3592,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>3</v>
@@ -3840,7 +3600,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B239" t="s">
         <v>3</v>
@@ -3848,7 +3608,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="B240" t="s">
         <v>3</v>
@@ -3856,7 +3616,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="B241" t="s">
         <v>3</v>
@@ -3864,7 +3624,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="B242" t="s">
         <v>3</v>
@@ -3872,7 +3632,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>408</v>
+        <v>155</v>
       </c>
       <c r="B243" t="s">
         <v>3</v>
@@ -3880,7 +3640,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
@@ -3888,7 +3648,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B245" t="s">
         <v>3</v>
@@ -3896,7 +3656,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
@@ -3904,7 +3664,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="B247" t="s">
         <v>3</v>
@@ -3912,7 +3672,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="B248" t="s">
         <v>3</v>
@@ -3920,7 +3680,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="B249" t="s">
         <v>3</v>
@@ -3928,7 +3688,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
@@ -3936,7 +3696,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="B251" t="s">
         <v>3</v>
@@ -3944,7 +3704,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
@@ -3952,7 +3712,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="B253" t="s">
         <v>3</v>
@@ -3960,7 +3720,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="B254" t="s">
         <v>3</v>
@@ -3968,7 +3728,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="B255" t="s">
         <v>3</v>
@@ -3976,7 +3736,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="B256" t="s">
         <v>3</v>
@@ -3984,7 +3744,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>455</v>
+        <v>280</v>
       </c>
       <c r="B257" t="s">
         <v>3</v>
@@ -3992,7 +3752,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>467</v>
+        <v>208</v>
       </c>
       <c r="B258" t="s">
         <v>3</v>
@@ -4000,7 +3760,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>495</v>
+        <v>418</v>
       </c>
       <c r="B259" t="s">
         <v>3</v>
@@ -4008,7 +3768,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
@@ -4016,7 +3776,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="B261" t="s">
         <v>3</v>
@@ -4024,7 +3784,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="B262" t="s">
         <v>3</v>
@@ -4032,7 +3792,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="B263" t="s">
         <v>3</v>
@@ -4040,7 +3800,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
@@ -4048,7 +3808,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
@@ -4056,7 +3816,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>290</v>
+        <v>113</v>
       </c>
       <c r="B266" t="s">
         <v>3</v>
@@ -4064,7 +3824,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="B267" t="s">
         <v>3</v>
@@ -4072,7 +3832,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B268" t="s">
         <v>3</v>
@@ -4080,7 +3840,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="B269" t="s">
         <v>3</v>
@@ -4088,7 +3848,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="B270" t="s">
         <v>3</v>
@@ -4096,7 +3856,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B271" t="s">
         <v>3</v>
@@ -4104,7 +3864,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>407</v>
+        <v>117</v>
       </c>
       <c r="B272" t="s">
         <v>3</v>
@@ -4112,7 +3872,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>412</v>
+        <v>264</v>
       </c>
       <c r="B273" t="s">
         <v>3</v>
@@ -4120,7 +3880,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="B274" t="s">
         <v>3</v>
@@ -4128,7 +3888,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B275" t="s">
         <v>3</v>
@@ -4136,7 +3896,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B276" t="s">
         <v>3</v>
@@ -4144,7 +3904,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B277" t="s">
         <v>3</v>
@@ -4152,7 +3912,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>310</v>
+        <v>141</v>
       </c>
       <c r="B278" t="s">
         <v>3</v>
@@ -4160,7 +3920,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="B279" t="s">
         <v>3</v>
@@ -4168,7 +3928,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="B280" t="s">
         <v>3</v>
@@ -4176,7 +3936,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>368</v>
+        <v>303</v>
       </c>
       <c r="B281" t="s">
         <v>3</v>
@@ -4184,7 +3944,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B282" t="s">
         <v>3</v>
@@ -4192,7 +3952,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B283" t="s">
         <v>3</v>
@@ -4200,7 +3960,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="B284" t="s">
         <v>3</v>
@@ -4208,7 +3968,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>414</v>
+        <v>259</v>
       </c>
       <c r="B285" t="s">
         <v>3</v>
@@ -4216,7 +3976,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>424</v>
+        <v>133</v>
       </c>
       <c r="B286" t="s">
         <v>3</v>
@@ -4224,15 +3984,15 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>476</v>
+        <v>347</v>
       </c>
       <c r="B288" t="s">
         <v>3</v>
@@ -4240,15 +4000,15 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>477</v>
+        <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>481</v>
+        <v>34</v>
       </c>
       <c r="B290" t="s">
         <v>3</v>
@@ -4256,175 +4016,175 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="B292" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B295" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="B297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B298" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B299" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>428</v>
+        <v>140</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>473</v>
+        <v>120</v>
       </c>
       <c r="B301" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>345</v>
+        <v>99</v>
       </c>
       <c r="B302" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B305" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>427</v>
+        <v>315</v>
       </c>
       <c r="B306" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="B308" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B309" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B310" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>177</v>
+        <v>376</v>
       </c>
       <c r="B311" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B312" t="s">
         <v>3</v>
@@ -4432,7 +4192,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B313" t="s">
         <v>3</v>
@@ -4440,7 +4200,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>185</v>
+        <v>399</v>
       </c>
       <c r="B314" t="s">
         <v>3</v>
@@ -4448,7 +4208,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="B315" t="s">
         <v>3</v>
@@ -4456,7 +4216,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="B316" t="s">
         <v>3</v>
@@ -4464,7 +4224,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="B317" t="s">
         <v>3</v>
@@ -4472,7 +4232,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B318" t="s">
         <v>3</v>
@@ -4480,7 +4240,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B319" t="s">
         <v>3</v>
@@ -4488,7 +4248,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="B320" t="s">
         <v>3</v>
@@ -4496,7 +4256,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="B321" t="s">
         <v>3</v>
@@ -4504,7 +4264,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="B322" t="s">
         <v>3</v>
@@ -4512,15 +4272,15 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>308</v>
+        <v>427</v>
       </c>
       <c r="B323" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="B324" t="s">
         <v>3</v>
@@ -4528,7 +4288,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="B325" t="s">
         <v>3</v>
@@ -4536,7 +4296,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>369</v>
+        <v>202</v>
       </c>
       <c r="B326" t="s">
         <v>3</v>
@@ -4544,7 +4304,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="B327" t="s">
         <v>3</v>
@@ -4552,7 +4312,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="B328" t="s">
         <v>3</v>
@@ -4560,7 +4320,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>475</v>
+        <v>142</v>
       </c>
       <c r="B329" t="s">
         <v>3</v>
@@ -4568,7 +4328,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>173</v>
+        <v>394</v>
       </c>
       <c r="B330" t="s">
         <v>3</v>
@@ -4576,7 +4336,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="B331" t="s">
         <v>3</v>
@@ -4584,7 +4344,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B332" t="s">
         <v>3</v>
@@ -4592,15 +4352,15 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>246</v>
+        <v>412</v>
       </c>
       <c r="B334" t="s">
         <v>3</v>
@@ -4608,7 +4368,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="B335" t="s">
         <v>3</v>
@@ -4616,15 +4376,15 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>459</v>
+        <v>313</v>
       </c>
       <c r="B336" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B337" t="s">
         <v>3</v>
@@ -4632,7 +4392,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="B338" t="s">
         <v>3</v>
@@ -4640,7 +4400,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="B339" t="s">
         <v>3</v>
@@ -4648,7 +4408,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B340" t="s">
         <v>3</v>
@@ -4656,7 +4416,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="B341" t="s">
         <v>3</v>
@@ -4664,7 +4424,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="B342" t="s">
         <v>3</v>
@@ -4672,7 +4432,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>274</v>
+        <v>411</v>
       </c>
       <c r="B343" t="s">
         <v>3</v>
@@ -4680,7 +4440,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="B344" t="s">
         <v>3</v>
@@ -4688,15 +4448,15 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>358</v>
+        <v>100</v>
       </c>
       <c r="B345" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>503</v>
+        <v>329</v>
       </c>
       <c r="B346" t="s">
         <v>3</v>
@@ -4704,7 +4464,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="B347" t="s">
         <v>3</v>
@@ -4712,7 +4472,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="B348" t="s">
         <v>3</v>
@@ -4720,7 +4480,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>145</v>
+        <v>410</v>
       </c>
       <c r="B349" t="s">
         <v>3</v>
@@ -4728,15 +4488,15 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>193</v>
+        <v>389</v>
       </c>
       <c r="B350" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>448</v>
+        <v>168</v>
       </c>
       <c r="B351" t="s">
         <v>3</v>
@@ -4744,7 +4504,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="B352" t="s">
         <v>3</v>
@@ -4752,7 +4512,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="B353" t="s">
         <v>3</v>
@@ -4760,7 +4520,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>420</v>
+        <v>92</v>
       </c>
       <c r="B354" t="s">
         <v>3</v>
@@ -4768,7 +4528,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="B355" t="s">
         <v>3</v>
@@ -4776,7 +4536,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="B356" t="s">
         <v>3</v>
@@ -4784,7 +4544,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B357" t="s">
         <v>3</v>
@@ -4792,7 +4552,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B358" t="s">
         <v>3</v>
@@ -4800,7 +4560,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="B359" t="s">
         <v>3</v>
@@ -4808,7 +4568,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="B360" t="s">
         <v>3</v>
@@ -4816,7 +4576,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>384</v>
+        <v>116</v>
       </c>
       <c r="B361" t="s">
         <v>3</v>
@@ -4824,7 +4584,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>403</v>
+        <v>161</v>
       </c>
       <c r="B362" t="s">
         <v>3</v>
@@ -4832,7 +4592,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="B363" t="s">
         <v>3</v>
@@ -4840,7 +4600,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="B364" t="s">
         <v>3</v>
@@ -4848,7 +4608,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>9</v>
+        <v>387</v>
       </c>
       <c r="B365" t="s">
         <v>3</v>
@@ -4856,7 +4616,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>34</v>
+        <v>417</v>
       </c>
       <c r="B366" t="s">
         <v>3</v>
@@ -4864,7 +4624,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B367" t="s">
         <v>3</v>
@@ -4872,7 +4632,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B368" t="s">
         <v>3</v>
@@ -4880,7 +4640,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>353</v>
+        <v>18</v>
       </c>
       <c r="B369" t="s">
         <v>3</v>
@@ -4888,7 +4648,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="B370" t="s">
         <v>3</v>
@@ -4896,7 +4656,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="B371" t="s">
         <v>3</v>
@@ -4904,7 +4664,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="B372" t="s">
         <v>3</v>
@@ -4912,7 +4672,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="B373" t="s">
         <v>3</v>
@@ -4920,7 +4680,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="B374" t="s">
         <v>3</v>
@@ -4928,23 +4688,23 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="B375" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>372</v>
+        <v>65</v>
       </c>
       <c r="B376" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="B377" t="s">
         <v>3</v>
@@ -4952,7 +4712,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>89</v>
+        <v>357</v>
       </c>
       <c r="B378" t="s">
         <v>3</v>
@@ -4960,7 +4720,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B379" t="s">
         <v>3</v>
@@ -4968,7 +4728,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>230</v>
+        <v>388</v>
       </c>
       <c r="B380" t="s">
         <v>3</v>
@@ -4976,7 +4736,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="B381" t="s">
         <v>3</v>
@@ -4984,7 +4744,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="B382" t="s">
         <v>3</v>
@@ -4992,7 +4752,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>334</v>
+        <v>49</v>
       </c>
       <c r="B383" t="s">
         <v>3</v>
@@ -5000,7 +4760,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>483</v>
+        <v>112</v>
       </c>
       <c r="B384" t="s">
         <v>3</v>
@@ -5008,7 +4768,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>484</v>
+        <v>265</v>
       </c>
       <c r="B385" t="s">
         <v>3</v>
@@ -5016,7 +4776,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>486</v>
+        <v>196</v>
       </c>
       <c r="B386" t="s">
         <v>3</v>
@@ -5024,7 +4784,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>506</v>
+        <v>98</v>
       </c>
       <c r="B387" t="s">
         <v>3</v>
@@ -5032,7 +4792,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B388" t="s">
         <v>3</v>
@@ -5040,7 +4800,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="B389" t="s">
         <v>3</v>
@@ -5048,7 +4808,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="B390" t="s">
         <v>3</v>
@@ -5056,7 +4816,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>296</v>
+        <v>4</v>
       </c>
       <c r="B391" t="s">
         <v>3</v>
@@ -5064,7 +4824,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>450</v>
+        <v>14</v>
       </c>
       <c r="B392" t="s">
         <v>3</v>
@@ -5072,7 +4832,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>468</v>
+        <v>160</v>
       </c>
       <c r="B393" t="s">
         <v>3</v>
@@ -5080,7 +4840,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>480</v>
+        <v>108</v>
       </c>
       <c r="B394" t="s">
         <v>3</v>
@@ -5088,7 +4848,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="B395" t="s">
         <v>3</v>
@@ -5096,7 +4856,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="B396" t="s">
         <v>3</v>
@@ -5104,7 +4864,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>216</v>
+        <v>375</v>
       </c>
       <c r="B397" t="s">
         <v>3</v>
@@ -5112,7 +4872,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="B398" t="s">
         <v>3</v>
@@ -5120,7 +4880,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>254</v>
+        <v>414</v>
       </c>
       <c r="B399" t="s">
         <v>3</v>
@@ -5128,7 +4888,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="B400" t="s">
         <v>3</v>
@@ -5136,7 +4896,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="B401" t="s">
         <v>3</v>
@@ -5144,7 +4904,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="B402" t="s">
         <v>3</v>
@@ -5152,7 +4912,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="B403" t="s">
         <v>3</v>
@@ -5160,7 +4920,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="B404" t="s">
         <v>3</v>
@@ -5168,7 +4928,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B405" t="s">
         <v>3</v>
@@ -5176,7 +4936,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="B406" t="s">
         <v>3</v>
@@ -5184,7 +4944,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>433</v>
+        <v>246</v>
       </c>
       <c r="B407" t="s">
         <v>3</v>
@@ -5192,7 +4952,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="B408" t="s">
         <v>3</v>
@@ -5200,7 +4960,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>392</v>
+        <v>288</v>
       </c>
       <c r="B409" t="s">
         <v>3</v>
@@ -5208,7 +4968,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>18</v>
+        <v>335</v>
       </c>
       <c r="B410" t="s">
         <v>3</v>
@@ -5216,15 +4976,15 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>237</v>
+        <v>425</v>
       </c>
       <c r="B411" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B412" t="s">
         <v>3</v>
@@ -5232,7 +4992,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="B413" t="s">
         <v>3</v>
@@ -5240,7 +5000,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
       <c r="B414" t="s">
         <v>3</v>
@@ -5248,7 +5008,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B415" t="s">
         <v>3</v>
@@ -5256,7 +5016,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="B416" t="s">
         <v>3</v>
@@ -5264,7 +5024,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>195</v>
+        <v>331</v>
       </c>
       <c r="B417" t="s">
         <v>3</v>
@@ -5272,7 +5032,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="B418" t="s">
         <v>3</v>
@@ -5280,31 +5040,31 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>501</v>
+        <v>26</v>
       </c>
       <c r="B419" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="B420" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>462</v>
+        <v>337</v>
       </c>
       <c r="B421" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B422" t="s">
         <v>3</v>
@@ -5312,7 +5072,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="B423" t="s">
         <v>3</v>
@@ -5320,7 +5080,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="B424" t="s">
         <v>3</v>
@@ -5328,658 +5088,17 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="B425" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>359</v>
-      </c>
-      <c r="B426" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>40</v>
-      </c>
-      <c r="B427" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
-        <v>118</v>
-      </c>
-      <c r="B428" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>240</v>
-      </c>
-      <c r="B429" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>262</v>
-      </c>
-      <c r="B430" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>277</v>
-      </c>
-      <c r="B431" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>293</v>
-      </c>
-      <c r="B432" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>299</v>
-      </c>
-      <c r="B433" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>317</v>
-      </c>
-      <c r="B434" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>328</v>
-      </c>
-      <c r="B435" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>497</v>
-      </c>
-      <c r="B436" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>74</v>
-      </c>
-      <c r="B437" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>250</v>
-      </c>
-      <c r="B438" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>114</v>
-      </c>
-      <c r="B439" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
-        <v>423</v>
-      </c>
-      <c r="B440" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>363</v>
-      </c>
-      <c r="B441" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
-        <v>326</v>
-      </c>
-      <c r="B442" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>179</v>
-      </c>
-      <c r="B443" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>48</v>
-      </c>
-      <c r="B444" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>53</v>
-      </c>
-      <c r="B445" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
-        <v>212</v>
-      </c>
-      <c r="B446" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
-        <v>301</v>
-      </c>
-      <c r="B447" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
-        <v>337</v>
-      </c>
-      <c r="B448" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>364</v>
-      </c>
-      <c r="B449" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>199</v>
-      </c>
-      <c r="B450" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>286</v>
-      </c>
-      <c r="B451" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>313</v>
-      </c>
-      <c r="B452" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>27</v>
-      </c>
-      <c r="B453" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>28</v>
-      </c>
-      <c r="B454" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>33</v>
-      </c>
-      <c r="B455" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>56</v>
-      </c>
-      <c r="B456" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
-        <v>93</v>
-      </c>
-      <c r="B457" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>130</v>
-      </c>
-      <c r="B458" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
-        <v>131</v>
-      </c>
-      <c r="B459" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>150</v>
-      </c>
-      <c r="B460" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
-        <v>157</v>
-      </c>
-      <c r="B461" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
-        <v>218</v>
-      </c>
-      <c r="B462" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
-        <v>336</v>
-      </c>
-      <c r="B463" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
-        <v>132</v>
-      </c>
-      <c r="B464" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
-        <v>183</v>
-      </c>
-      <c r="B465" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
-        <v>341</v>
-      </c>
-      <c r="B466" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
-        <v>425</v>
-      </c>
-      <c r="B467" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
-        <v>133</v>
-      </c>
-      <c r="B468" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
-        <v>124</v>
-      </c>
-      <c r="B469" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
-        <v>263</v>
-      </c>
-      <c r="B470" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
-        <v>208</v>
-      </c>
-      <c r="B471" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
-        <v>366</v>
-      </c>
-      <c r="B472" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
-        <v>20</v>
-      </c>
-      <c r="B473" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
-        <v>63</v>
-      </c>
-      <c r="B474" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475" t="s">
-        <v>84</v>
-      </c>
-      <c r="B475" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
-        <v>209</v>
-      </c>
-      <c r="B476" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
-        <v>402</v>
-      </c>
-      <c r="B477" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
-        <v>421</v>
-      </c>
-      <c r="B478" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
-        <v>431</v>
-      </c>
-      <c r="B479" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
-        <v>437</v>
-      </c>
-      <c r="B480" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
-        <v>444</v>
-      </c>
-      <c r="B481" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
-        <v>471</v>
-      </c>
-      <c r="B482" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
-        <v>507</v>
-      </c>
-      <c r="B483" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
-        <v>7</v>
-      </c>
-      <c r="B484" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
-        <v>127</v>
-      </c>
-      <c r="B485" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
-        <v>207</v>
-      </c>
-      <c r="B486" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
-        <v>192</v>
-      </c>
-      <c r="B487" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
-        <v>388</v>
-      </c>
-      <c r="B488" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
-        <v>190</v>
-      </c>
-      <c r="B489" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
-        <v>210</v>
-      </c>
-      <c r="B490" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
-        <v>297</v>
-      </c>
-      <c r="B491" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
-        <v>319</v>
-      </c>
-      <c r="B492" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
-        <v>215</v>
-      </c>
-      <c r="B493" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
-        <v>399</v>
-      </c>
-      <c r="B494" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
-        <v>152</v>
-      </c>
-      <c r="B495" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
-        <v>348</v>
-      </c>
-      <c r="B496" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
-        <v>45</v>
-      </c>
-      <c r="B497" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" t="s">
-        <v>223</v>
-      </c>
-      <c r="B498" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
-        <v>331</v>
-      </c>
-      <c r="B499" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
-        <v>94</v>
-      </c>
-      <c r="B500" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
-        <v>322</v>
-      </c>
-      <c r="B501" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
-        <v>22</v>
-      </c>
-      <c r="B502" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>305</v>
-      </c>
-      <c r="B503" t="s">
-        <v>3</v>
-      </c>
-      <c r="C503">
-        <f>+C482</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
-        <v>318</v>
-      </c>
-      <c r="B504" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
-        <v>493</v>
-      </c>
-      <c r="B505" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B505" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B434">
+    <sortCondition ref="A1:A434"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>